--- a/biology/Histoire de la zoologie et de la botanique/Joseph_Henry_Maiden/Joseph_Henry_Maiden.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joseph_Henry_Maiden/Joseph_Henry_Maiden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Henry Maiden, né à Londres le 25 avril 1859 et mort à Turramurra, près de Sydney, le 16 novembre 1925, est un  botaniste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études scientifiques à l’université de Londres mais doit les interrompre à cause de problèmes de santé. Pour se soigner, on lui conseille de faire un long voyage en mer. Il part en 1850 pour la Nouvelle-Galles du Sud. Appréciant le climat et la flore, il décide alors de s’y établir.
 En 1881, Maiden devient le premier conservateur du Technological Museum de Sydney, fonction qu’ll conserve jusqu’en 1896. En 1890, il est consultant en botanique pour le ministère de l’Agriculture et en 1894, il devient direction pour l’éducation technique. En 1896, Maiden devient botaniste auprès du gouvernement et directeur des jardins botaniques. Il commence alors à réaliser le premier herbier de la colonie.
